--- a/public/excel/brand.xlsx
+++ b/public/excel/brand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carly/Documents/abcstudio/mvp제작프로젝트/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howru\Dropbox\1. ABC Studio\1. StyleBOX\4. App development\스토리보드 및 자료_민지\민지님 개발\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1802BFD6-D35E-3C4F-AD28-B90174455CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F4B95A-1D86-4F9D-9B10-980AA77796EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StyleBOX Brand" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +41,540 @@
     <t>Insta</t>
   </si>
   <si>
+    <t>Chodole</t>
+  </si>
+  <si>
+    <t>Starline</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/starline.vnn/</t>
+  </si>
+  <si>
+    <t>Boho Garden</t>
+  </si>
+  <si>
+    <t>Ziczac</t>
+  </si>
+  <si>
+    <t>https://ziczacdesign.vn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ziczacdesign/</t>
+  </si>
+  <si>
+    <t>HNOSS</t>
+  </si>
+  <si>
+    <t>https://hnossfashion.com/</t>
+  </si>
+  <si>
+    <t>Vuông shop</t>
+  </si>
+  <si>
+    <t>https://vuong.com.vn/</t>
+  </si>
+  <si>
+    <t>LANA Shop</t>
+  </si>
+  <si>
+    <t>https://www.lanashop.vn/</t>
+  </si>
+  <si>
+    <t>Ashop</t>
+  </si>
+  <si>
+    <t>Mentosa</t>
+  </si>
+  <si>
+    <t>https://mentosa.com.vn/</t>
+  </si>
+  <si>
+    <t>ANNA clothing</t>
+  </si>
+  <si>
+    <t>Lê Camelia Clothing</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lecamelia.official/</t>
+  </si>
+  <si>
+    <t>HangKao</t>
+  </si>
+  <si>
+    <t>She by Shj</t>
+  </si>
+  <si>
+    <t>https://shebyshj.com/</t>
+  </si>
+  <si>
+    <t>Florapunk</t>
+  </si>
+  <si>
+    <t>http://floralpunk.com/</t>
+  </si>
+  <si>
+    <t>Usthebasic</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/usthebasic/</t>
+  </si>
+  <si>
+    <t>KIDO</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>Hion Store</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chan closet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hera Pham</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maybi</t>
+  </si>
+  <si>
+    <t>For Her shop</t>
+  </si>
+  <si>
+    <t>Sò vintage</t>
+  </si>
+  <si>
+    <t>NYNI STORE</t>
+  </si>
+  <si>
+    <t>Lep'</t>
+  </si>
+  <si>
+    <t>Chị Ba_Chuyên Hàng Xuất Dư</t>
+  </si>
+  <si>
+    <t>K&amp;K Fashion</t>
+  </si>
+  <si>
+    <t>MAXY Workshop</t>
+  </si>
+  <si>
+    <t>BoxShop</t>
+  </si>
+  <si>
+    <t>IFU Fashion</t>
+  </si>
+  <si>
+    <t>MOMOCO</t>
+  </si>
+  <si>
+    <t>NEVA</t>
+  </si>
+  <si>
+    <t>RUCHAN</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ruchandesign/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.instagram.com/elektron.sg/ </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEU Clothing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beach Club</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimi</t>
+  </si>
+  <si>
+    <t>Aroma shop</t>
+  </si>
+  <si>
+    <t>XIPI</t>
+  </si>
+  <si>
+    <t>FMStyle SaiGon</t>
+  </si>
+  <si>
+    <t>Meninavn</t>
+  </si>
+  <si>
+    <t>LiDu.Clothes</t>
+  </si>
+  <si>
+    <t>William Boutique</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/boho.garden/?hl=en</t>
+  </si>
+  <si>
+    <t>Jem closet</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jem.closet/?hl=en</t>
+  </si>
+  <si>
+    <t>Angel Lam</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tyribee/?hl=en</t>
+  </si>
+  <si>
+    <t>Tyrabee</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/laminapparel/</t>
+  </si>
+  <si>
+    <t>Mi workshop</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mifworkshop/</t>
+  </si>
+  <si>
+    <t>Happy Zoo</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/happyzoo_store/?hl=en</t>
+  </si>
+  <si>
+    <t>Len closing</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lenclothing/?hl=en</t>
+  </si>
+  <si>
+    <t>Studio 122</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/studio122saigon/?hl=en</t>
+  </si>
+  <si>
+    <t>The Cosmo VN</t>
+  </si>
+  <si>
+    <t>https://thecosmo.vn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thecosmovn/?hl=en</t>
+  </si>
+  <si>
+    <t>Lamelia</t>
+  </si>
+  <si>
+    <t>la min</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/theashop_vietnam/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rubies.sg/</t>
+  </si>
+  <si>
+    <t>Rubies</t>
+  </si>
+  <si>
+    <t>http://rubies.vn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/janet.studio</t>
+  </si>
+  <si>
+    <t>Janet Studio</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thenewplayground/</t>
+  </si>
+  <si>
+    <t>thenewplayground</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tinfour.store</t>
+  </si>
+  <si>
+    <t>tinfour clothing</t>
+  </si>
+  <si>
+    <t>arius</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/arius.est2016</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/ariustees</t>
+  </si>
+  <si>
+    <t>nha.cua.moon</t>
+  </si>
+  <si>
+    <t>https://shopee.vn/nhacuamoon.shop</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nha.cua.moon/?igshid=79i598l5e3h7</t>
+  </si>
+  <si>
+    <t>Goût De Jun.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/goutdejun.ig</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mentosa.vn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hnossfashion/</t>
+  </si>
+  <si>
+    <t>Charmo</t>
+  </si>
+  <si>
+    <t>Noemi</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/charmo.clothing/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/noemi_shop.vn/?hl=en</t>
+  </si>
+  <si>
+    <t>NowSaigon</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nowsaigon/?hl=en</t>
+  </si>
+  <si>
+    <t>https://nowsaigon.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/annaclothing.vn/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chodole/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lanashop.vn/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/angellamshop/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/shop.for.her.hcm/?hl=en</t>
+  </si>
+  <si>
+    <t>Kosmo Chic</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hangkao_closet/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kosmochic/?hl=en</t>
+  </si>
+  <si>
+    <t>colkids.club</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/colkids.club/?hl=en</t>
+  </si>
+  <si>
+    <t>Swe</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/swe.vn/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hades.studio/?hl=en</t>
+  </si>
+  <si>
+    <t>Hades studio</t>
+  </si>
+  <si>
+    <t>5thewayvietnam</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/5thewayvietnam/?hl=en</t>
+  </si>
+  <si>
+    <t>Highclub</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/highclubsg.com.vn/?hl=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degray Saigon </t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/degrey.saigon/?hl=en</t>
+  </si>
+  <si>
+    <t>Regods</t>
+  </si>
+  <si>
+    <t>Banawa official</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/banawa.official/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/uncoverr_official/?hl=en</t>
+  </si>
+  <si>
+    <t>uncover</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/missout.clo/?hl=en</t>
+  </si>
+  <si>
+    <t>Missout</t>
+  </si>
+  <si>
+    <t>Bana Bag</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bama.bag/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yellowflicker.yf/?hl=en</t>
+  </si>
+  <si>
+    <t>Yellow Flickr</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kidosince2011/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/armstrong_vietnam</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hion.storee/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chan.closet93/</t>
+  </si>
+  <si>
+    <t>nieyo</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/floralpunk/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_meuclothing_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/beachclub.official/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/herapham.boutique/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dearemofficial/</t>
+  </si>
+  <si>
+    <t>Dear Em</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/maybivn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sovintage_house/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nynistore/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lepdress/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vuong.shop/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kkfashion.vn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/she.by.shj/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/maxyworkshop/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/boxshop.vn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ifufashion/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/momoco.vn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aromahouse.vn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/xipi.vn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/menina_vn_shop/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lidubystoryclothes/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/williamboutique/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fmstyle.sg/</t>
+  </si>
+  <si>
+    <t>TAVA Store</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tava.store/?hl=en</t>
+  </si>
+  <si>
+    <t>Croptopcorner</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/croptopcorner/?hl=en</t>
+  </si>
+  <si>
+    <t>Clownzvn</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/clownzvn/?hl=en</t>
+  </si>
+  <si>
+    <t>sakepoche</t>
+  </si>
+  <si>
+    <t>pradies</t>
+  </si>
+  <si>
+    <t>90VIBES</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/90s.vibesss/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pradies.sg/?hl=en</t>
+  </si>
+  <si>
+    <t>Rorasaigon</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rorasaigon/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cesar_2018_/</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
     <t>ID (Key Value)</t>
   </si>
   <si>
@@ -77,15 +611,16 @@
     <t>Text</t>
   </si>
   <si>
+    <t>ChoDoLe - tshirt and tote shop
+GIẢM10% CODE: CDL10 TẠI WEB.
+We make tees &amp; customize print from customers order. We don't own those artworks.
+Opening Time: Mon-Sat 10:00am - 20:00pm</t>
+  </si>
+  <si>
+    <t>https://chodole.com/</t>
+  </si>
+  <si>
     <t>site</t>
-  </si>
-  <si>
-    <t>Jessica Latorre</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jessica_latorre</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -93,13 +628,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +658,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -131,28 +666,28 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -161,7 +696,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -172,13 +707,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -193,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,16 +763,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -236,49 +796,133 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="쉼표 [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="표준 6 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="하이퍼링크" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="6" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,91 +1195,2119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="5" customWidth="1"/>
-    <col min="7" max="16" width="47.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="9" customWidth="1"/>
+    <col min="7" max="16" width="47.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="19" customFormat="1" ht="78.599999999999994" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C2" s="6">
+        <v>60000</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" s="19" customFormat="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>373</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" s="19" customFormat="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10">
+        <v>8916</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" s="19" customFormat="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="C5" s="6">
+        <v>140181</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" s="19" customFormat="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="22">
+        <v>100000</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" s="19" customFormat="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="22">
+        <v>222000</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" s="19" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="22">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" s="19" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="22">
+        <v>50000</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" s="19" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="22">
+        <v>465850</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" s="19" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="6">
+        <v>126000</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" s="19" customFormat="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="22">
+        <v>426590</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" s="19" customFormat="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="22">
+        <v>655000</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" s="19" customFormat="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="6">
+        <v>110000</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" s="19" customFormat="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="22">
+        <v>453000</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" s="19" customFormat="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10">
+        <v>118000</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" s="19" customFormat="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="22">
+        <v>2511</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" s="19" customFormat="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="10">
+        <v>162000</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" s="19" customFormat="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="10">
+        <v>23000</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" s="19" customFormat="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="25">
+        <v>137000</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" s="19" customFormat="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="10">
+        <v>124000</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" s="19" customFormat="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="10">
+        <v>75000</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" s="19" customFormat="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="10">
+        <v>150600</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" s="19" customFormat="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10">
+        <v>43656</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" s="19" customFormat="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9619</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" s="5" customFormat="1">
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="10">
+        <v>177957</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:16" s="19" customFormat="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="10">
+        <v>211547</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" s="19" customFormat="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="10">
+        <v>131000</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" s="19" customFormat="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="22">
+        <v>83000</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" s="19" customFormat="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="22">
+        <v>156000</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" s="19" customFormat="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="22">
+        <v>242143</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+    </row>
+    <row r="32" spans="1:16" s="19" customFormat="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6">
+        <v>480000</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" s="19" customFormat="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="6">
+        <v>400000</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" s="19" customFormat="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="6">
+        <v>34000</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" s="19" customFormat="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="6">
+        <v>120000</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" s="19" customFormat="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="22">
+        <v>346091</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:16" s="19" customFormat="1">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="10">
+        <v>555000</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+    </row>
+    <row r="38" spans="1:16" s="19" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="22">
+        <v>432000</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="1:16" s="19" customFormat="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="10">
+        <v>94000</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" s="19" customFormat="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="27">
+        <v>415770</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" s="19" customFormat="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="10">
+        <v>115064</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" s="19" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="27">
+        <v>274536</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" s="19" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="10">
+        <v>207455</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" s="19" customFormat="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" s="19" customFormat="1">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="10">
+        <v>486694</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" s="19" customFormat="1">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="10">
+        <v>163413</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" s="19" customFormat="1">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="10">
+        <v>276951</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" s="19" customFormat="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="10">
+        <v>30000</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="1:16" s="19" customFormat="1">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="10">
+        <v>72000</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+    </row>
+    <row r="50" spans="1:16" s="19" customFormat="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="6">
+        <v>169000</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" s="32" customFormat="1">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="29">
+        <v>140000</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52" spans="1:16" s="32" customFormat="1">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+    </row>
+    <row r="53" spans="1:16" s="4" customFormat="1">
+      <c r="B53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="29">
+        <v>175783</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="5" customFormat="1">
+      <c r="B54" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="10">
+        <v>779000</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="1:16" s="5" customFormat="1">
+      <c r="B55" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="10">
+        <v>425000</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:16" s="5" customFormat="1">
+      <c r="B56" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="10">
+        <v>800000</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="1:16" s="5" customFormat="1">
+      <c r="B57" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="10">
+        <v>831000</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:16" s="5" customFormat="1">
+      <c r="B58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="10">
+        <v>513000</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="1:16" s="5" customFormat="1">
+      <c r="B59" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="10">
+        <v>819000</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="1:16" s="5" customFormat="1">
+      <c r="B60" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="10">
+        <v>322000</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:16" s="5" customFormat="1">
+      <c r="B61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="10">
+        <v>443000</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="1:16" s="34" customFormat="1">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="10">
+        <v>485000</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+    </row>
+    <row r="63" spans="1:16" s="34" customFormat="1">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="10">
+        <v>457000</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+    </row>
+    <row r="64" spans="1:16" s="34" customFormat="1">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="10">
+        <v>568000</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+    </row>
+    <row r="65" spans="1:16" s="34" customFormat="1">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="10">
+        <v>433000</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+    </row>
+    <row r="66" spans="1:16" s="19" customFormat="1">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="22">
+        <v>236236</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+    </row>
+    <row r="67" spans="1:16" s="32" customFormat="1">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="6">
+        <v>585</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="1:16" s="32" customFormat="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="6">
+        <v>9401</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+    </row>
+    <row r="69" spans="1:16" s="32" customFormat="1">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="C69" s="6">
+        <v>419217</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="9" t="s">
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="1:16" s="32" customFormat="1">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="29">
+        <v>7200</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+    </row>
+    <row r="71" spans="1:16" s="19" customFormat="1">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+    </row>
+    <row r="72" spans="1:16" s="32" customFormat="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="29">
+        <v>4256</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+    </row>
+    <row r="73" spans="1:16" s="32" customFormat="1">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="29">
+        <v>15486</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+    </row>
+    <row r="74" spans="1:16" s="32" customFormat="1">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="35">
+        <v>270666</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+    </row>
+    <row r="75" spans="1:16" s="32" customFormat="1">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="35">
+        <v>651137</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+    </row>
+    <row r="76" spans="1:16" s="32" customFormat="1">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="29">
+        <v>113357</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+    </row>
+    <row r="77" spans="1:16" s="32" customFormat="1">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="29">
+        <v>46781</v>
+      </c>
+      <c r="D77" s="31"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+    </row>
+    <row r="78" spans="1:16" s="19" customFormat="1">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="10">
+        <v>220000</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+    </row>
+    <row r="79" spans="1:16" s="32" customFormat="1">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="29">
+        <v>15000</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+    </row>
+    <row r="80" spans="1:16" s="32" customFormat="1">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="29">
+        <v>205526</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+    </row>
+    <row r="81" spans="1:16" s="32" customFormat="1">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="29">
+        <v>211579</v>
+      </c>
+      <c r="D81" s="31"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+    </row>
+    <row r="82" spans="1:16" s="32" customFormat="1">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="29">
+        <v>211759</v>
+      </c>
+      <c r="D82" s="31"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+    </row>
+    <row r="83" spans="1:16" s="32" customFormat="1">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="29">
+        <v>143451</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+    </row>
+    <row r="84" spans="1:16" s="32" customFormat="1">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="29">
+        <v>391809</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+    </row>
+    <row r="85" spans="1:16" s="32" customFormat="1">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="22">
+        <v>613</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+    </row>
+    <row r="86" spans="1:16" s="32" customFormat="1">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="C86" s="29">
+        <v>181869</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="17">
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{08F8BD9B-3CB4-1745-9332-B4FE71997851}"/>
+    <hyperlink ref="F69" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D69" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F32" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F86" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D52" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F78" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F53" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{4DC23859-02CD-423F-8C37-25DA5644A868}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{4C2EBDE8-BCD7-4D92-8AB9-EC6D06E9AFA6}"/>
+    <hyperlink ref="D29" r:id="rId15" xr:uid="{D40CB894-F91D-438D-9055-85AC601EDF48}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{E5AB2331-D929-445F-AFE8-4B48B0EFE8E7}"/>
+    <hyperlink ref="D30" r:id="rId17" xr:uid="{50E80A6D-D3FA-4D8B-8470-543301ED4E6D}"/>
+    <hyperlink ref="D12" r:id="rId18" xr:uid="{099B4D52-9258-48BD-89AE-891CC20893E8}"/>
+    <hyperlink ref="D36" r:id="rId19" xr:uid="{C8771E96-233D-4276-93BB-CD850079BA61}"/>
+    <hyperlink ref="D31" r:id="rId20" xr:uid="{6AAEDA40-A7E8-43A5-BAB7-54DFFE872715}"/>
+    <hyperlink ref="F7" r:id="rId21" xr:uid="{9A42BFF4-C052-4EEA-88BC-D3853D818E56}"/>
+    <hyperlink ref="D7" r:id="rId22" xr:uid="{B1C958DA-68CE-460F-AC3C-14D7D4B0C351}"/>
+    <hyperlink ref="F68" r:id="rId23" xr:uid="{9BA3D9E0-44C1-4E54-B530-4B4558D50BBF}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{A3972672-E28B-4E12-BA2D-5988789D2575}"/>
+    <hyperlink ref="D25" r:id="rId25" xr:uid="{E74FBA16-F37E-428C-86ED-CF17C5C78C48}"/>
+    <hyperlink ref="D24" r:id="rId26" xr:uid="{B268C008-029D-400B-8889-D60ACF1DABE1}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{7DA22799-34F0-4641-AD04-3339518EB85A}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{F3B8B8A3-D80A-457A-BA03-E1D766CF7F1F}"/>
+    <hyperlink ref="F33" r:id="rId29" xr:uid="{9AB2F189-428D-4D09-8CBE-7EEFCBFC284C}"/>
+    <hyperlink ref="D14" r:id="rId30" xr:uid="{4285467B-04F8-4896-B1D5-F3FF60362366}"/>
+    <hyperlink ref="D50" r:id="rId31" xr:uid="{58B72A54-107D-47A5-8588-066D043B9278}"/>
+    <hyperlink ref="D11" r:id="rId32" xr:uid="{54FA6B04-C5FD-4A67-BD84-1B9532D68F5C}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{D8E914DB-EC30-48AC-8CAB-D43C5336CA5F}"/>
+    <hyperlink ref="F34" r:id="rId34" xr:uid="{C82B1871-86F9-41B2-9071-C91F4297DF69}"/>
+    <hyperlink ref="D35" r:id="rId35" xr:uid="{3499E5BC-C8D6-469A-B15D-1E5BA77188D9}"/>
+    <hyperlink ref="D6" r:id="rId36" xr:uid="{3043E4B9-C3FF-46DF-9CD8-E4502964776A}"/>
+    <hyperlink ref="D8" r:id="rId37" xr:uid="{33DD8E03-3624-4BC4-8B6C-30DC12C151F5}"/>
+    <hyperlink ref="D13" r:id="rId38" xr:uid="{293C4FF7-5B4A-41E7-AF3D-5F3DD9F72ED7}"/>
+    <hyperlink ref="F13" r:id="rId39" xr:uid="{8BFBAE7B-BDA9-4689-8645-480EE0948C04}"/>
+    <hyperlink ref="D51" r:id="rId40" xr:uid="{F261C481-157B-4145-B1C6-6F521E414BA4}"/>
+    <hyperlink ref="D68" r:id="rId41" xr:uid="{2CBF0342-EB4F-4308-9D23-6FA242DABE77}"/>
+    <hyperlink ref="D2" r:id="rId42" xr:uid="{4E68FDD8-DDC3-492B-B376-D7909D64486A}"/>
+    <hyperlink ref="D5" r:id="rId43" xr:uid="{EF1B0221-B9A9-433E-BA6B-F13317558A39}"/>
+    <hyperlink ref="D10" r:id="rId44" xr:uid="{A804D658-6751-4049-975F-76A6288ECBD8}"/>
+    <hyperlink ref="D66" r:id="rId45" xr:uid="{8C1A0915-3D2C-4AFC-B7A2-FC34597E87BD}"/>
+    <hyperlink ref="D27" r:id="rId46" xr:uid="{6CA1E6A3-85EA-4456-9AD6-4AA7FABC1E08}"/>
+    <hyperlink ref="D71" r:id="rId47" xr:uid="{CC591F2C-C903-4430-BF4A-177DD2919336}"/>
+    <hyperlink ref="D37" r:id="rId48" xr:uid="{418938B9-AFAE-44EE-8B43-69DB5C026AE0}"/>
+    <hyperlink ref="D56" r:id="rId49" xr:uid="{C2AA25ED-3726-41F6-BFA8-AC365BA09237}"/>
+    <hyperlink ref="D57" r:id="rId50" xr:uid="{17C56C5C-7F2A-4D61-B003-FA3F10AA10D4}"/>
+    <hyperlink ref="D58" r:id="rId51" xr:uid="{D6805FCA-9596-4BCA-9389-FA88E1291CEB}"/>
+    <hyperlink ref="D59" r:id="rId52" xr:uid="{98B39BD3-2978-4A81-BDF8-C92F7E80DE1C}"/>
+    <hyperlink ref="D60" r:id="rId53" xr:uid="{3FD0DFEC-9FFE-44BA-8C74-E1B907164D85}"/>
+    <hyperlink ref="D61" r:id="rId54" xr:uid="{3541C486-5219-4E7C-A84B-F4B84EE94730}"/>
+    <hyperlink ref="D62" r:id="rId55" xr:uid="{675C2082-1CEB-461A-A9D9-8CCF2686DA45}"/>
+    <hyperlink ref="D63" r:id="rId56" xr:uid="{40477895-43A4-4294-9BEB-08DBEB82001E}"/>
+    <hyperlink ref="D64" r:id="rId57" xr:uid="{8AC582DB-CA8F-44DA-B551-B7A56412C94D}"/>
+    <hyperlink ref="D65" r:id="rId58" xr:uid="{AB62307D-CB20-446C-AA7B-48E4FDA6349A}"/>
+    <hyperlink ref="D38" r:id="rId59" xr:uid="{80196EF7-CC06-4EA6-A414-9EA8EE68FD7F}"/>
+    <hyperlink ref="D17" r:id="rId60" xr:uid="{B1E6B43E-77FC-4E96-8583-5961BC969427}"/>
+    <hyperlink ref="D39" r:id="rId61" xr:uid="{756087B9-8168-465B-A9C2-EA9F2152E45D}"/>
+    <hyperlink ref="D16" r:id="rId62" xr:uid="{90D1B015-2DBD-4A76-87C6-5330D0F0A0B4}"/>
+    <hyperlink ref="D67" r:id="rId63" xr:uid="{93491978-7C7E-4341-B741-8FEB8932F2D7}"/>
+    <hyperlink ref="D53" r:id="rId64" xr:uid="{097CCBFC-B528-47CA-90F2-63CC5F345E66}"/>
+    <hyperlink ref="D70" r:id="rId65" xr:uid="{C3E919E9-4776-40D4-9927-39B7042C9712}"/>
+    <hyperlink ref="D28" r:id="rId66" xr:uid="{22AB347A-C7BE-4829-BE64-006419E9E5C7}"/>
+    <hyperlink ref="D72" r:id="rId67" xr:uid="{DCA2AEA5-383D-4E1A-9712-DE160C7A8E28}"/>
+    <hyperlink ref="D73" r:id="rId68" xr:uid="{E138A50B-58D0-4A36-A6CA-21593240A815}"/>
+    <hyperlink ref="D74" r:id="rId69" xr:uid="{C7FA038E-6D16-452A-AAEF-2E88FF90E2AF}"/>
+    <hyperlink ref="D75" r:id="rId70" xr:uid="{342CC400-FA56-4159-B2D6-9A0C7AA47AF8}"/>
+    <hyperlink ref="D76" r:id="rId71" xr:uid="{0C4ADECD-9589-4219-B037-8D63524067FE}"/>
+    <hyperlink ref="D40" r:id="rId72" xr:uid="{6C741D7D-FBD0-4D77-AAE0-38C12C35BC8D}"/>
+    <hyperlink ref="D86" r:id="rId73" xr:uid="{4F73F357-8DEB-4C87-8C93-BF0CB6AE993F}"/>
+    <hyperlink ref="D42" r:id="rId74" xr:uid="{4E38DA7E-7B9B-47E5-9377-A9E811AF4826}"/>
+    <hyperlink ref="D78" r:id="rId75" xr:uid="{E71FCADE-05FC-48DB-805D-CC3D1ECAF5F2}"/>
+    <hyperlink ref="D41" r:id="rId76" xr:uid="{83D43E21-DA8F-4653-B735-CC6F11A37FCF}"/>
+    <hyperlink ref="D79" r:id="rId77" xr:uid="{09CFF75E-5C86-438D-B658-21AAD5353148}"/>
+    <hyperlink ref="D80" r:id="rId78" xr:uid="{78C839B4-A920-4407-97B6-C75F3BBF4FEB}"/>
+    <hyperlink ref="D43" r:id="rId79" xr:uid="{EAEE33FE-B637-4C13-ACF6-0BB30D2BE9E5}"/>
+    <hyperlink ref="D44" r:id="rId80" xr:uid="{63F662AC-917D-4975-A275-DAC739E61AD3}"/>
+    <hyperlink ref="D45" r:id="rId81" xr:uid="{B46EA798-64C9-4F3E-A96D-085EA7673489}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{C349781F-65D7-4C96-8B82-EFF95283B0CB}"/>
+    <hyperlink ref="D46" r:id="rId83" xr:uid="{57334524-6046-4174-B4B4-5F7A9956945C}"/>
+    <hyperlink ref="D47" r:id="rId84" xr:uid="{9A7EDDE0-77F1-4005-A561-B925B56C9DC5}"/>
+    <hyperlink ref="D84" r:id="rId85" xr:uid="{34211B79-4E68-4AA9-92A5-161662096687}"/>
+    <hyperlink ref="D48" r:id="rId86" xr:uid="{66BFDF7F-16EC-405D-949E-9D03B64AD1A4}"/>
+    <hyperlink ref="D49" r:id="rId87" xr:uid="{BB7D31C8-3390-41BB-91DF-A1CF041E52F7}"/>
+    <hyperlink ref="D54" r:id="rId88" xr:uid="{14F89871-6A9B-4C47-8226-78B103A92801}"/>
+    <hyperlink ref="D55" r:id="rId89" xr:uid="{71F7821E-BE00-4655-A3A9-3B7B34DDFF2E}"/>
+    <hyperlink ref="D19" r:id="rId90" xr:uid="{D007A1EA-EE39-47EC-A3F6-0D0222900CC4}"/>
+    <hyperlink ref="D21" r:id="rId91" xr:uid="{0982580E-A276-48CB-900A-EDC59BB2236C}"/>
+    <hyperlink ref="D20" r:id="rId92" xr:uid="{30B01F50-3DE0-4F90-9129-B9701D5C64BA}"/>
+    <hyperlink ref="D22" r:id="rId93" xr:uid="{34D3CC51-380B-44CD-8EE7-E46B5D5AD4E7}"/>
+    <hyperlink ref="D18" r:id="rId94" xr:uid="{A04FBB7A-79A6-41D1-80BB-71E691C6CFB5}"/>
+    <hyperlink ref="F2" r:id="rId95" xr:uid="{AE353546-8EAD-4C1D-B842-A2A178825800}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId96"/>
 </worksheet>
 </file>